--- a/rider/weekly/2017_ 4.xlsx
+++ b/rider/weekly/2017_ 4.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>209</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>253</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>227.25</c:v>
+                  <c:v>230.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212.69</c:v>
+                  <c:v>209.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.54</c:v>
+                  <c:v>194.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228.5</c:v>
+                  <c:v>224.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>235.62</c:v>
+                  <c:v>237.23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.79</c:v>
+                  <c:v>121.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107.42</c:v>
+                  <c:v>105.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D2">
-        <v>227.25</v>
+        <v>230.75</v>
       </c>
       <c r="E2">
         <v>101.9</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D3">
-        <v>212.69</v>
+        <v>209.38</v>
       </c>
       <c r="E3">
         <v>102.06</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D4">
-        <v>210.54</v>
+        <v>194.92</v>
       </c>
       <c r="E4">
         <v>102.22</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5">
-        <v>228.5</v>
+        <v>224.67</v>
       </c>
       <c r="E5">
         <v>102.38</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D6">
-        <v>235.62</v>
+        <v>237.23</v>
       </c>
       <c r="E6">
         <v>102.55</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7">
-        <v>119.79</v>
+        <v>121.14</v>
       </c>
       <c r="E7">
         <v>102.71</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D8">
-        <v>107.42</v>
+        <v>105.92</v>
       </c>
       <c r="E8">
         <v>102.87</v>
